--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2427534.697626569</v>
+        <v>2424990.104932286</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>68.11693918766139</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>130.1712092340068</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,13 +741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>130.9692788410262</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663201</v>
+        <v>130.4949840230021</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>52.21594625443465</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>132.3199863062914</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.8578877276007</v>
+        <v>92.85788772760075</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425955</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>139.4987618372557</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>119.2654231719099</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937528</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074824</v>
       </c>
       <c r="S6" t="n">
         <v>141.3629830843607</v>
@@ -1032,13 +1032,13 @@
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>78.93438805914367</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>33.45775895765194</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>94.8299816173971</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589187</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
-        <v>164.6615622377219</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>22.024631146418</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>52.81715403915715</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708302</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092505</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1215,7 +1215,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>136.0756624296438</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
@@ -1272,13 +1272,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>91.07876488380269</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>21.46935894929512</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>274.9632582378662</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699845</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>192.1887872359808</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365891</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.408064079031337</v>
+        <v>174.8605623338638</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>141.9273329298517</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695462</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>1.839588425939337</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>198.9107847550991</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>235.9337881971021</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>213.8732106000955</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>75.55208621972781</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>12.35680705404144</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>35.55160172423379</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>62.84300698292883</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>37.01163236946583</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>19.91555826189102</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>112.6849016609949</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>108.5249257999854</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>351.3361714764009</v>
+        <v>103.9826713767712</v>
       </c>
       <c r="C2" t="n">
-        <v>351.3361714764009</v>
+        <v>103.9826713767712</v>
       </c>
       <c r="D2" t="n">
-        <v>351.3361714764009</v>
+        <v>103.9826713767712</v>
       </c>
       <c r="E2" t="n">
-        <v>161.9163864599159</v>
+        <v>103.9826713767712</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107124</v>
+        <v>97.03717062756768</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>83.80703605175147</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330561</v>
@@ -4358,22 +4358,22 @@
         <v>672.2420264262261</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262261</v>
+        <v>482.8222414097411</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262261</v>
+        <v>293.4024563932561</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262261</v>
+        <v>103.9826713767712</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262261</v>
+        <v>103.9826713767712</v>
       </c>
       <c r="X2" t="n">
-        <v>540.7559564928858</v>
+        <v>103.9826713767712</v>
       </c>
       <c r="Y2" t="n">
-        <v>540.7559564928858</v>
+        <v>103.9826713767712</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>371.2627786323104</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C3" t="n">
-        <v>371.2627786323104</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D3" t="n">
-        <v>222.3283689710591</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E3" t="n">
-        <v>222.3283689710591</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F3" t="n">
-        <v>90.03616812153776</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>90.03616812153776</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>90.03616812153776</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
         <v>15.00204697330561</v>
@@ -4416,10 +4416,10 @@
         <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476354</v>
@@ -4431,28 +4431,28 @@
         <v>750.1023486652804</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652804</v>
+        <v>676.9378076264287</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652804</v>
+        <v>525.6547321810251</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652804</v>
+        <v>336.2349471645401</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652804</v>
+        <v>146.8151621480552</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652804</v>
+        <v>146.8151621480552</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652804</v>
+        <v>146.8151621480552</v>
       </c>
       <c r="X3" t="n">
-        <v>560.6825636487954</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.2627786323104</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="4">
@@ -4507,16 +4507,16 @@
         <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
         <v>15.00204697330561</v>
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>667.1198488237421</v>
+        <v>533.4632969992053</v>
       </c>
       <c r="C5" t="n">
-        <v>667.1198488237421</v>
+        <v>533.4632969992053</v>
       </c>
       <c r="D5" t="n">
         <v>533.4632969992053</v>
@@ -4553,7 +4553,7 @@
         <v>147.6750444009611</v>
       </c>
       <c r="F5" t="n">
-        <v>140.7295436517576</v>
+        <v>140.7295436517577</v>
       </c>
       <c r="G5" t="n">
         <v>128.3539025062532</v>
@@ -4562,22 +4562,22 @@
         <v>128.3539025062532</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675751</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017211</v>
+        <v>111.6705539017216</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746961</v>
+        <v>277.9807166746969</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030732</v>
+        <v>521.2049416030742</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709136</v>
+        <v>823.5081935709144</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582746</v>
+        <v>1135.316836582747</v>
       </c>
       <c r="O5" t="n">
         <v>1416.413635079233</v>
@@ -4586,31 +4586,31 @@
         <v>1621.82224833275</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837876</v>
+        <v>1727.902815837875</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540644</v>
+        <v>1727.902815837875</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.810726300992</v>
+        <v>1586.994975598223</v>
       </c>
       <c r="T5" t="n">
-        <v>1350.951391437427</v>
+        <v>1375.135640734658</v>
       </c>
       <c r="U5" t="n">
-        <v>1350.951391437427</v>
+        <v>1375.135640734658</v>
       </c>
       <c r="V5" t="n">
-        <v>1019.888504093856</v>
+        <v>1044.072753391088</v>
       </c>
       <c r="W5" t="n">
-        <v>667.1198488237421</v>
+        <v>923.6026289750171</v>
       </c>
       <c r="X5" t="n">
-        <v>667.1198488237421</v>
+        <v>923.6026289750171</v>
       </c>
       <c r="Y5" t="n">
-        <v>667.1198488237421</v>
+        <v>533.4632969992053</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>384.0885044967172</v>
+        <v>357.9454952591358</v>
       </c>
       <c r="C6" t="n">
-        <v>384.0885044967172</v>
+        <v>183.4924659780088</v>
       </c>
       <c r="D6" t="n">
-        <v>384.0885044967172</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="E6" t="n">
-        <v>224.8510494912617</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="F6" t="n">
-        <v>78.31649151814669</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="G6" t="n">
-        <v>78.31649151814669</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814669</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675751</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787481</v>
+        <v>61.66788464787471</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806052</v>
+        <v>186.157723980605</v>
       </c>
       <c r="L6" t="n">
-        <v>399.872217118996</v>
+        <v>399.8722171189956</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223473</v>
+        <v>668.6238185223467</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352441</v>
+        <v>958.8971200352435</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228314</v>
+        <v>1202.220686228313</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639503</v>
+        <v>1378.176233639502</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906543</v>
+        <v>1445.878660906542</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906543</v>
+        <v>1401.100270703766</v>
       </c>
       <c r="S6" t="n">
-        <v>1303.087768902139</v>
+        <v>1258.309378699362</v>
       </c>
       <c r="T6" t="n">
-        <v>1107.547150621894</v>
+        <v>1062.768760419116</v>
       </c>
       <c r="U6" t="n">
-        <v>879.4320085774501</v>
+        <v>834.6536183746729</v>
       </c>
       <c r="V6" t="n">
-        <v>799.700303467204</v>
+        <v>599.5015101429301</v>
       </c>
       <c r="W6" t="n">
-        <v>799.700303467204</v>
+        <v>599.5015101429301</v>
       </c>
       <c r="X6" t="n">
-        <v>591.8488032616712</v>
+        <v>565.7057940240898</v>
       </c>
       <c r="Y6" t="n">
-        <v>384.0885044967172</v>
+        <v>357.9454952591358</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>203.4942392446644</v>
+        <v>130.3459165363505</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675751</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675751</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675751</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675751</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675751</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675751</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675751</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675751</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574637</v>
+        <v>64.2406666257463</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584105</v>
+        <v>132.1299861584104</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347957</v>
+        <v>206.9680378347954</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195347</v>
+        <v>287.8841338195343</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934693</v>
+        <v>342.3101561934689</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857976</v>
+        <v>369.8190495857972</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857976</v>
+        <v>332.5350520040882</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857976</v>
+        <v>332.5350520040882</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495857976</v>
+        <v>130.3459165363505</v>
       </c>
       <c r="T7" t="n">
-        <v>203.4942392446644</v>
+        <v>130.3459165363505</v>
       </c>
       <c r="U7" t="n">
-        <v>203.4942392446644</v>
+        <v>130.3459165363505</v>
       </c>
       <c r="V7" t="n">
-        <v>203.4942392446644</v>
+        <v>130.3459165363505</v>
       </c>
       <c r="W7" t="n">
-        <v>203.4942392446644</v>
+        <v>130.3459165363505</v>
       </c>
       <c r="X7" t="n">
-        <v>203.4942392446644</v>
+        <v>130.3459165363505</v>
       </c>
       <c r="Y7" t="n">
-        <v>203.4942392446644</v>
+        <v>130.3459165363505</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1310.09075811159</v>
+        <v>835.3082595243011</v>
       </c>
       <c r="C8" t="n">
-        <v>1310.09075811159</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="D8" t="n">
-        <v>1256.740097465976</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="E8" t="n">
-        <v>1256.740097465976</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="F8" t="n">
-        <v>845.7541926763688</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G8" t="n">
-        <v>429.723147379776</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947426</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J8" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232727</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642784</v>
+        <v>1914.852662567165</v>
       </c>
       <c r="V8" t="n">
-        <v>2036.325171642784</v>
+        <v>1583.789775223594</v>
       </c>
       <c r="W8" t="n">
-        <v>1683.556516372669</v>
+        <v>1231.02111995348</v>
       </c>
       <c r="X8" t="n">
-        <v>1310.09075811159</v>
+        <v>857.5553616924001</v>
       </c>
       <c r="Y8" t="n">
-        <v>1310.09075811159</v>
+        <v>857.5553616924001</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>501.2327775772192</v>
+        <v>501.8069478626824</v>
       </c>
       <c r="C9" t="n">
-        <v>326.7797482960922</v>
+        <v>327.3539185815554</v>
       </c>
       <c r="D9" t="n">
-        <v>326.7797482960922</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="E9" t="n">
-        <v>326.7797482960922</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562336</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104394</v>
+        <v>504.1959674104402</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789486</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689046</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333486</v>
+        <v>1734.238298972666</v>
       </c>
       <c r="S9" t="n">
-        <v>1627.262386835204</v>
+        <v>1595.273638474384</v>
       </c>
       <c r="T9" t="n">
-        <v>1432.55206530918</v>
+        <v>1595.273638474384</v>
       </c>
       <c r="U9" t="n">
-        <v>1204.450475442444</v>
+        <v>1367.172048607649</v>
       </c>
       <c r="V9" t="n">
-        <v>969.2983672107016</v>
+        <v>1132.019940375906</v>
       </c>
       <c r="W9" t="n">
-        <v>877.2996148028201</v>
+        <v>877.7825836477043</v>
       </c>
       <c r="X9" t="n">
-        <v>669.4481145972873</v>
+        <v>877.7825836477043</v>
       </c>
       <c r="Y9" t="n">
-        <v>669.4481145972873</v>
+        <v>670.0222848827505</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.9453651969076</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="C10" t="n">
-        <v>211.9453651969076</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="D10" t="n">
-        <v>211.9453651969076</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="E10" t="n">
-        <v>211.9453651969076</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="F10" t="n">
-        <v>65.05541769899722</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981519</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927331</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377459</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033657</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R10" t="n">
-        <v>411.1248508126812</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S10" t="n">
-        <v>211.9453651969076</v>
+        <v>321.1098614248266</v>
       </c>
       <c r="T10" t="n">
-        <v>211.9453651969076</v>
+        <v>321.1098614248266</v>
       </c>
       <c r="U10" t="n">
-        <v>211.9453651969076</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="V10" t="n">
-        <v>211.9453651969076</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="W10" t="n">
-        <v>211.9453651969076</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="X10" t="n">
-        <v>211.9453651969076</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.9453651969076</v>
+        <v>43.36919653809311</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400744</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121675</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121675</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>197.0043242297744</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297744</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T13" t="n">
-        <v>2069.978161118013</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U13" t="n">
-        <v>1780.902934462211</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V13" t="n">
-        <v>1526.218446256324</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W13" t="n">
-        <v>1236.801276219365</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X13" t="n">
-        <v>1008.811725321348</v>
+        <v>916.2946447138443</v>
       </c>
       <c r="Y13" t="n">
-        <v>788.0191461778176</v>
+        <v>695.5020655703141</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>172.349019141113</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138443</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="17">
@@ -5507,52 +5507,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273908</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273908</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792912</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2529.355041543136</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>726.955532171245</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0193492433381</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602305</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396418</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1357.386127043032</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1129.396576145015</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>908.6039970014847</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5777,10 +5777,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,16 +6069,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1996.142560886457</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1707.067334230655</v>
       </c>
       <c r="V25" t="n">
-        <v>1669.670361056914</v>
+        <v>1452.382846024768</v>
       </c>
       <c r="W25" t="n">
-        <v>1380.253191019954</v>
+        <v>1162.965675987807</v>
       </c>
       <c r="X25" t="n">
-        <v>1152.263640121936</v>
+        <v>934.9761250897898</v>
       </c>
       <c r="Y25" t="n">
-        <v>931.4710609784063</v>
+        <v>714.1835459462596</v>
       </c>
     </row>
     <row r="26">
@@ -6215,34 +6215,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,22 +6455,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6479,31 +6479,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517213</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>558.0193492433381</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,67 +6680,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647281</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>800.5007694647281</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D34" t="n">
-        <v>650.3841300523924</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E34" t="n">
-        <v>502.4710364699993</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F34" t="n">
-        <v>355.5810889720889</v>
+        <v>296.9234711454493</v>
       </c>
       <c r="G34" t="n">
-        <v>188.3849896869688</v>
+        <v>129.7273718603292</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>129.7273718603292</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949679</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192542</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,16 +6953,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>506.2737913123336</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>506.2737913123336</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
         <v>175.9033664000583</v>
@@ -7090,55 +7090,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,19 +7184,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349513</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>1550.665004989558</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.574735228845</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811332</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532263</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408905</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2159.677058245683</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1870.601831589881</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7421,7 +7421,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474266</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>113.9333885650335</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>113.9333885650335</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>113.9333885650335</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075809</v>
@@ -7664,31 +7664,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239597</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397185</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2149.810879820877</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2149.810879820877</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>808.8888553856866</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>639.9526724577797</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.329899359456</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>990.5373202159263</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>63.36835372228435</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>25.21666309130745</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>211.1765892730635</v>
+        <v>43.72409101823101</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>144.5956654067393</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,13 +24415,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>18.49466557218921</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>16.20385512672593</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>72.64978773649551</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>210.9709121168632</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>127.9379057921824</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>45.71423459433174</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>223.6799913536622</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25600,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>180.3938179578224</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>120.3791545843328</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>105.8997516910999</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>40.09054721822693</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>800996.6458930394</v>
+        <v>800996.6458930393</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>800996.6458930394</v>
+        <v>800996.6458930393</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>800996.6458930394</v>
+        <v>800996.6458930393</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448197</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448193</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448199</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.371644819</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448201</v>
-      </c>
       <c r="E2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.614759755</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597549</v>
@@ -26366,19 +26366,19 @@
         <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253098</v>
+        <v>270592.3620253094</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231951</v>
+        <v>115410.0540231963</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742655</v>
+        <v>601443.2075742645</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854483</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881914</v>
+        <v>62913.6376588191</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197546</v>
+        <v>27875.25362197563</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515981</v>
+        <v>157146.3805515978</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>206604.4229263469</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888975</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186733</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="H4" t="n">
+        <v>14826.69604186739</v>
+      </c>
+      <c r="I4" t="n">
         <v>14826.69604186738</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186731</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186738</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936802</v>
+        <v>76435.73471936799</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.0818558723</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290571.8961217692</v>
+        <v>-290571.8961217693</v>
       </c>
       <c r="C6" t="n">
-        <v>82674.8519737944</v>
+        <v>82674.85197379495</v>
       </c>
       <c r="D6" t="n">
-        <v>261495.245676855</v>
+        <v>261495.2456768538</v>
       </c>
       <c r="E6" t="n">
-        <v>-91853.8186802854</v>
+        <v>-91888.55660571987</v>
       </c>
       <c r="F6" t="n">
-        <v>509589.3888939805</v>
+        <v>509554.6509685449</v>
       </c>
       <c r="G6" t="n">
-        <v>509589.3888939802</v>
+        <v>509554.6509685447</v>
       </c>
       <c r="H6" t="n">
-        <v>509589.3888939807</v>
+        <v>509554.6509685445</v>
       </c>
       <c r="I6" t="n">
-        <v>509589.3888939804</v>
+        <v>509554.6509685447</v>
       </c>
       <c r="J6" t="n">
-        <v>460524.4441654354</v>
+        <v>460489.70624</v>
       </c>
       <c r="K6" t="n">
-        <v>446675.7512351614</v>
+        <v>446641.0133097256</v>
       </c>
       <c r="L6" t="n">
-        <v>481714.1352720049</v>
+        <v>481679.3973465689</v>
       </c>
       <c r="M6" t="n">
-        <v>352443.0083423824</v>
+        <v>352408.2704169468</v>
       </c>
       <c r="N6" t="n">
-        <v>509589.3888939804</v>
+        <v>509554.6509685445</v>
       </c>
       <c r="O6" t="n">
-        <v>509589.3888939801</v>
+        <v>509554.6509685448</v>
       </c>
       <c r="P6" t="n">
-        <v>509589.3888939804</v>
+        <v>509554.6509685447</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950598</v>
+        <v>758.8996292950594</v>
       </c>
       <c r="D3" t="n">
-        <v>853.710664537684</v>
+        <v>853.7106645376848</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,19 +26790,19 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594689</v>
+        <v>431.9757039594688</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261639</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26814,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821549</v>
+        <v>210.4296883821546</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262426</v>
+        <v>94.81103524262539</v>
       </c>
       <c r="E3" t="n">
-        <v>514.26483580399</v>
+        <v>514.2648358039889</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931488</v>
+        <v>244.4501167931487</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666943</v>
+        <v>110.1392527666951</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734845</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793149</v>
+        <v>244.4501167931487</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666944</v>
+        <v>110.1392527666951</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734845</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931488</v>
+        <v>244.4501167931487</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666943</v>
+        <v>110.1392527666951</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734845</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971605</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>248.7768869185609</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988668</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871024</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>239.5598914444622</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,13 +27461,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>14.0999335523577</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681128</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377083</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715738</v>
+        <v>75.2780011804754</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098427</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27579,7 +27579,7 @@
         <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.47009429716257</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390156</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>222.3630553143915</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>308.2302560714736</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425963</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>229.9755455455032</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,16 +27695,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
@@ -27713,7 +27713,7 @@
         <v>96.47037835246135</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.3208508493753</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.3306063007482</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27752,13 +27752,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>153.8661990902816</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>172.3152262458255</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>72.41683948123074</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>114.2957212599131</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304072</v>
+        <v>30.24193919304076</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589183</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>115.7603165166226</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>57.43676775172884</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>286.2443834913144</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>360.7092105170626</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>301.8658875815258</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27935,7 +27935,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>11.369403134995</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904886</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721433</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27992,13 +27992,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>160.6162182771169</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>144.9821421616367</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923926</v>
+        <v>18.15430933923916</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425556</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>11.27179957785052</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>3.19006900078431e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.19006900078431e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-2.793325115546819e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.830214554862199e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-5.35127896428318e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085665</v>
+        <v>3.050852781085664</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429357</v>
+        <v>31.24454604429356</v>
       </c>
       <c r="I5" t="n">
         <v>117.6180018428052</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286697</v>
+        <v>258.9373162286696</v>
       </c>
       <c r="K5" t="n">
-        <v>388.079914452026</v>
+        <v>388.0799144520258</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511765</v>
+        <v>481.4474502511763</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968086</v>
+        <v>535.7030533968084</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610684</v>
+        <v>544.3712888610681</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191477</v>
+        <v>514.0343715191475</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860953</v>
+        <v>438.7164434860951</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634648</v>
+        <v>329.4577782634647</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098726</v>
+        <v>191.6431310098725</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898966</v>
+        <v>69.52130774898963</v>
       </c>
       <c r="T5" t="n">
         <v>13.3551080492025</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868531</v>
+        <v>0.244068222486853</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030883</v>
+        <v>1.632350146030882</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403511</v>
+        <v>15.7650658840351</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062472</v>
+        <v>56.20152915062469</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475933</v>
+        <v>154.2212916475932</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316624</v>
+        <v>263.5887514316623</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721881</v>
+        <v>354.427605172188</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658075</v>
+        <v>413.6002979658073</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468656</v>
+        <v>424.5470671468654</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374444</v>
+        <v>388.3776244374442</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872482</v>
+        <v>311.7072835872481</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547493</v>
+        <v>208.3680642547492</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632158</v>
+        <v>101.3488976632157</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947713</v>
+        <v>30.32018801947712</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378865</v>
+        <v>6.579516597378862</v>
       </c>
       <c r="U6" t="n">
         <v>0.107391456975716</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236993</v>
+        <v>1.368507528236992</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377982</v>
+        <v>12.16727602377981</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734522</v>
+        <v>41.1547536673452</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635539</v>
+        <v>96.75348224635535</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260797</v>
+        <v>158.9956928260796</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162526</v>
+        <v>203.4597465162525</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399133</v>
+        <v>214.5197755399132</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528483</v>
+        <v>209.4189747528482</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275343</v>
+        <v>193.4323186275342</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514995</v>
+        <v>165.5147650514994</v>
       </c>
       <c r="Q7" t="n">
         <v>114.593844023554</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054695</v>
+        <v>61.53307486054693</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391195</v>
+        <v>23.84935392391194</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830786</v>
+        <v>5.847259438830783</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656334</v>
+        <v>0.0746458651765633</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840425</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934777</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662297</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928394</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699489</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095114</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616797</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730377</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152842</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884504</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475631</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053858</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057842</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017474</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001568</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368735</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282505</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420138</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153088</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978874</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>268.6704608606964</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>204.3779992811859</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>169.6252075171348</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,28 +32546,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32789,19 +32789,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>658.2124561388958</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>320.9147064709962</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>303.4297552732306</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>263.7590256391492</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>403.3065760821439</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>552.0015769888923</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>541.2980521010957</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198343</v>
+        <v>77.89141170198332</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070455</v>
+        <v>167.9900634070452</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811893</v>
+        <v>245.6810352811891</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695359</v>
+        <v>305.3568201695357</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644774</v>
+        <v>314.9582252644772</v>
       </c>
       <c r="O5" t="n">
-        <v>283.936160097461</v>
+        <v>283.9361600974607</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308258</v>
+        <v>207.4834477308256</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890153</v>
+        <v>107.1520883890152</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092657</v>
+        <v>27.38366498092648</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573035</v>
+        <v>125.7473124573033</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923139</v>
+        <v>215.8732253923138</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437892</v>
+        <v>271.466264043789</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635322</v>
+        <v>293.2053550635321</v>
       </c>
       <c r="O6" t="n">
-        <v>245.781379993</v>
+        <v>245.7813799929998</v>
       </c>
       <c r="P6" t="n">
-        <v>177.732876172918</v>
+        <v>177.7328761729179</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872775</v>
+        <v>68.38629016872764</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.9824346555443</v>
+        <v>29.98243465554424</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501429</v>
+        <v>68.57507023501421</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230827</v>
+        <v>75.59399159230816</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761514</v>
+        <v>81.73343028761505</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569151</v>
+        <v>54.97578017569143</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235188</v>
+        <v>27.78676100235182</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142394</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808905</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140553</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866205</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109601</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093947</v>
+        <v>46.65087734093964</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169989</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818059</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510194</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892904</v>
+        <v>94.41818044892926</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850721</v>
+        <v>49.84612367850738</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563525</v>
+        <v>93.99375335563545</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767806</v>
+        <v>107.8966131767808</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769679</v>
+        <v>79.14171420769699</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084179</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010483</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>77.54037261451921</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999015</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>23.94570355317081</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36437,19 +36437,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>526.8707440555626</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>189.5729943876629</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>160.8335108287862</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010433</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>132.4173135558158</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>265.4651371077849</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>418.027169574562</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>407.3236446867654</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
